--- a/INTLINE/data/566/BTP/COR-Summary_historical.xlsx
+++ b/INTLINE/data/566/BTP/COR-Summary_historical.xlsx
@@ -7226,6 +7226,9 @@
       <c r="ACF2">
         <v>293883</v>
       </c>
+      <c r="ACG2">
+        <v>347948.68</v>
+      </c>
     </row>
     <row r="3" spans="1:761">
       <c r="A3" s="1" t="s">
@@ -9507,6 +9510,9 @@
       </c>
       <c r="ACF3">
         <v>481549</v>
+      </c>
+      <c r="ACG3">
+        <v>343013</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/566/BTP/COR-Summary_historical.xlsx
+++ b/INTLINE/data/566/BTP/COR-Summary_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ACG3"/>
+  <dimension ref="A1:ACH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4167,6 +4167,11 @@
           <t>2022-04</t>
         </is>
       </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6454,6 +6459,9 @@
       <c r="ACG2" t="n">
         <v>347948.68</v>
       </c>
+      <c r="ACH2" t="n">
+        <v>304915</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -8740,6 +8748,9 @@
       </c>
       <c r="ACG3" t="n">
         <v>343013</v>
+      </c>
+      <c r="ACH3" t="n">
+        <v>451700</v>
       </c>
     </row>
   </sheetData>
